--- a/Utility/testData.xlsx
+++ b/Utility/testData.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\SeleniumPractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\SeleniumPractice\Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{A7738275-2408-4364-B9C9-7D2002449DBF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC6BD08-BE41-4A3F-80B0-1127874F5508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="6960" windowWidth="19200" xWindow="0" xr2:uid="{D0D49A9E-C382-4202-8ED6-F6687E3BE397}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{D0D49A9E-C382-4202-8ED6-F6687E3BE397}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Harun</t>
   </si>
@@ -75,17 +77,34 @@
     <t>December</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Saiful</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Harry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,19 +140,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,10 +169,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -188,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -240,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,21 +370,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -382,7 +401,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -434,15 +453,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4041D66A-B61A-4362-80A3-215D30E83852}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4041D66A-B61A-4362-80A3-215D30E83852}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
@@ -450,10 +469,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.58984375" collapsed="false"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -484,9 +503,6 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -516,9 +532,6 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -548,15 +561,126 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="t@ttt.com" r:id="rId1" ref="C2" xr:uid="{77B224C2-ACC0-4ACF-BEC2-2174C71DC246}"/>
-    <hyperlink display="h@hhh.com" r:id="rId2" ref="C3" xr:uid="{6652FCE8-ADD6-4483-84F4-390BB1B694F1}"/>
+    <hyperlink ref="C2" r:id="rId1" display="t@ttt.com" xr:uid="{77B224C2-ACC0-4ACF-BEC2-2174C71DC246}"/>
+    <hyperlink ref="C3" r:id="rId2" display="h@hhh.com" xr:uid="{6652FCE8-ADD6-4483-84F4-390BB1B694F1}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EC161-BA81-4DD9-8C9D-A30F885ABE61}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB1353-249A-45A5-A57D-BD487F264579}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>